--- a/src/assets/updateBill.xlsx
+++ b/src/assets/updateBill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monil/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan\codes\unicode\SVKM_Bill_Tracking_Frontend\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15A3575-2559-844E-A463-8DE84D7E8FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054B27F2-BD5C-4F97-AB98-1B7E60D76713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bills Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Sr no</t>
   </si>
@@ -73,43 +73,13 @@
     <t>MIRO Amt</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>1000330159</t>
-  </si>
-  <si>
-    <t>4,08,178.00</t>
-  </si>
-  <si>
-    <t>21-01-2025</t>
-  </si>
-  <si>
-    <t>SV138</t>
-  </si>
-  <si>
-    <t>01-03-2025</t>
-  </si>
-  <si>
-    <t>02-01-2026</t>
-  </si>
-  <si>
-    <t>5000330048</t>
-  </si>
-  <si>
-    <t>05-01-2026</t>
-  </si>
-  <si>
-    <t>2,09,829.00</t>
-  </si>
-  <si>
-    <t>SV115</t>
-  </si>
-  <si>
-    <t>2,09,829.01</t>
-  </si>
-  <si>
-    <t>02-01-2025</t>
+    <t>MIGO done by</t>
+  </si>
+  <si>
+    <t>SES done by</t>
+  </si>
+  <si>
+    <t>Dt ret-PIMO aft approval</t>
   </si>
 </sst>
 </file>
@@ -179,18 +149,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19E0A45D-E3AE-7C4D-9DD6-EFA7371ABCD4}" name="Table2" displayName="Table2" ref="A1:Q3" totalsRowShown="0">
-  <autoFilter ref="A1:Q3" xr:uid="{19E0A45D-E3AE-7C4D-9DD6-EFA7371ABCD4}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19E0A45D-E3AE-7C4D-9DD6-EFA7371ABCD4}" name="Table2" displayName="Table2" ref="A1:T2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:T2" xr:uid="{19E0A45D-E3AE-7C4D-9DD6-EFA7371ABCD4}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{C20F23A7-8BB1-AF4B-954E-6399C6DC33F6}" name="Sr no"/>
     <tableColumn id="41" xr3:uid="{C598F594-ADB8-194D-BC84-D3870539FFF9}" name="COP Dt"/>
     <tableColumn id="42" xr3:uid="{4DC8FA1F-A5CB-5247-B6CF-7E8092E22723}" name="COP Amt" dataDxfId="1"/>
     <tableColumn id="46" xr3:uid="{0883B355-C2FB-B043-9367-F80EEB2452A2}" name="MIGO no"/>
     <tableColumn id="47" xr3:uid="{25B13C71-C2A5-EF4B-8E6F-160C97D5DEB7}" name="MIGO Dt"/>
     <tableColumn id="48" xr3:uid="{C8B94CE0-E57C-8845-8599-1D0DB90F906B}" name="MIGO Amt"/>
+    <tableColumn id="2" xr3:uid="{67894A11-211D-4DCA-B1C0-14285A21BC28}" name="MIGO done by"/>
     <tableColumn id="72" xr3:uid="{FACDFCE5-E71F-7E46-83D8-CFFA08031FEF}" name="SES no"/>
     <tableColumn id="73" xr3:uid="{2B7C0437-3388-1941-AF4D-F23C4F240AFB}" name="SES Amt"/>
     <tableColumn id="74" xr3:uid="{6CA554FF-9BEA-4D42-937F-577A2F209FF4}" name="SES Dt"/>
+    <tableColumn id="3" xr3:uid="{B3DB1DA1-B6D0-484D-A028-7701F5FC47EB}" name="SES done by"/>
+    <tableColumn id="4" xr3:uid="{5B8A3B07-7364-46D8-8BC9-34FC6298728B}" name="Dt ret-PIMO aft approval"/>
     <tableColumn id="90" xr3:uid="{FA6833F9-DF1E-B344-9B2B-8BCA6D49AF6B}" name="F110"/>
     <tableColumn id="91" xr3:uid="{CB3D8C37-4C1B-D845-81F9-668AB18EF7CE}" name="Dt of Payment"/>
     <tableColumn id="92" xr3:uid="{D1A422AA-B7AD-C34B-ADC0-9EEA8012389C}" name="Hard Copy"/>
@@ -526,23 +499,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" customWidth="1"/>
-    <col min="13" max="13" width="30.83203125" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="15" max="17" width="15.83203125" customWidth="1"/>
+    <col min="1" max="10" width="15.84765625" customWidth="1"/>
+    <col min="11" max="11" width="20.34765625" customWidth="1"/>
+    <col min="12" max="12" width="15.84765625" customWidth="1"/>
+    <col min="13" max="13" width="30.84765625" customWidth="1"/>
+    <col min="14" max="14" width="17.34765625" customWidth="1"/>
+    <col min="15" max="17" width="15.84765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,148 +535,55 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2500300</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1">
-        <v>408178</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="C2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2500301</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="1">
-        <v>209829</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
-      <c r="N4" s="1"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="C3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
